--- a/Sample-data.xlsx
+++ b/Sample-data.xlsx
@@ -136,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,33 +145,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
+      <b/>
+      <sz val="13.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="4"/>
+      <sz val="13.5"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -182,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -190,31 +205,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
+  </cellStyleXfs>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -509,237 +538,237 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="18">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
+    <row r="2" spans="1:6" ht="15.75">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>9876543210</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>9823456710</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
+    <row r="4" spans="1:6" ht="15.75">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>9865321470</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
+    <row r="5" spans="1:6" ht="15.75">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>9856741200</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
+    <row r="6" spans="1:6" ht="15.75">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>9765432109</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
+    <row r="7" spans="1:6" ht="15.75">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>9867012345</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>9856012340</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2">
+    <row r="9" spans="1:6" ht="15.75">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>9876012348</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2">
+    <row r="10" spans="1:6" ht="15.75">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>9832456781</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2">
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>9821345790</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
